--- a/Code/Results/Cases/Case_0_124/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_124/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.437296893046518</v>
+        <v>4.92663022216654</v>
       </c>
       <c r="D2">
-        <v>8.438623616310554</v>
+        <v>2.706030255740866</v>
       </c>
       <c r="E2">
-        <v>87.71339960893897</v>
+        <v>40.45870857033537</v>
       </c>
       <c r="F2">
-        <v>47.11271148854949</v>
+        <v>20.63069856659229</v>
       </c>
       <c r="G2">
-        <v>76.75903170372032</v>
+        <v>25.07669775851724</v>
       </c>
       <c r="H2">
-        <v>18.84671791310679</v>
+        <v>11.75330198768288</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>119.2537783298525</v>
+        <v>57.86521735402618</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.554639156285102</v>
+        <v>4.75020579027044</v>
       </c>
       <c r="D3">
-        <v>6.566386869467906</v>
+        <v>2.775981400822221</v>
       </c>
       <c r="E3">
-        <v>75.03193696219806</v>
+        <v>37.7447454554132</v>
       </c>
       <c r="F3">
-        <v>37.70633714861455</v>
+        <v>20.63698421196751</v>
       </c>
       <c r="G3">
-        <v>60.70466269990897</v>
+        <v>24.63225408136648</v>
       </c>
       <c r="H3">
-        <v>14.85518936460763</v>
+        <v>11.95258782237333</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>103.1774455770504</v>
+        <v>54.32657143557415</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.079274402106926</v>
+        <v>4.640721872203416</v>
       </c>
       <c r="D4">
-        <v>5.795212540543624</v>
+        <v>2.882741088580405</v>
       </c>
       <c r="E4">
-        <v>69.36729937357461</v>
+        <v>35.97835745701322</v>
       </c>
       <c r="F4">
-        <v>33.59613272882867</v>
+        <v>20.68308875040475</v>
       </c>
       <c r="G4">
-        <v>53.7522271737383</v>
+        <v>24.43684844615833</v>
       </c>
       <c r="H4">
-        <v>13.13214306347349</v>
+        <v>12.08886615363643</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>95.72690334294859</v>
+        <v>52.03338129302649</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.889838874934656</v>
+        <v>4.595888422962744</v>
       </c>
       <c r="D5">
-        <v>5.515926520191853</v>
+        <v>2.927040347804819</v>
       </c>
       <c r="E5">
-        <v>67.22640747674369</v>
+        <v>35.2332020867936</v>
       </c>
       <c r="F5">
-        <v>32.07591933800423</v>
+        <v>20.71204526999227</v>
       </c>
       <c r="G5">
-        <v>51.18933361421697</v>
+        <v>24.37629344396692</v>
       </c>
       <c r="H5">
-        <v>12.49826615239347</v>
+        <v>12.14774615468647</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>92.8802343579394</v>
+        <v>51.06868264551071</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.85850678732433</v>
+        <v>4.588432967093631</v>
       </c>
       <c r="D6">
-        <v>5.471050985439805</v>
+        <v>2.93444452074627</v>
       </c>
       <c r="E6">
-        <v>66.87740087191939</v>
+        <v>35.10793370229888</v>
       </c>
       <c r="F6">
-        <v>31.83013561509964</v>
+        <v>20.71745366985141</v>
       </c>
       <c r="G6">
-        <v>50.775392347532</v>
+        <v>24.36737443592509</v>
       </c>
       <c r="H6">
-        <v>12.39596585555584</v>
+        <v>12.15772086564211</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>92.41477091371453</v>
+        <v>50.90667464537157</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.07670896029483</v>
+        <v>4.640118013298389</v>
       </c>
       <c r="D7">
-        <v>5.791334881838892</v>
+        <v>2.883335292988268</v>
       </c>
       <c r="E7">
-        <v>69.33792946034649</v>
+        <v>35.96841087565716</v>
       </c>
       <c r="F7">
-        <v>33.57513846838889</v>
+        <v>20.68343872255418</v>
       </c>
       <c r="G7">
-        <v>53.71680270470524</v>
+        <v>24.43595524023551</v>
       </c>
       <c r="H7">
-        <v>13.12337616235801</v>
+        <v>12.08964688093299</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>95.68795524978661</v>
+        <v>52.0204931698381</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8.102221387748784</v>
+        <v>4.866081757249129</v>
       </c>
       <c r="D8">
-        <v>7.630553219053536</v>
+        <v>2.664736848931564</v>
       </c>
       <c r="E8">
-        <v>82.38314158432122</v>
+        <v>39.54357401156243</v>
       </c>
       <c r="F8">
-        <v>43.15630617027016</v>
+        <v>20.62383684784165</v>
       </c>
       <c r="G8">
-        <v>69.97976968693699</v>
+        <v>24.90718999635376</v>
       </c>
       <c r="H8">
-        <v>17.15958836390084</v>
+        <v>11.81903217340908</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>112.6202582439078</v>
+        <v>56.67011963173081</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.102221387748784</v>
+        <v>5.297091858814765</v>
       </c>
       <c r="D9">
-        <v>7.630553219053536</v>
+        <v>3.038493853217551</v>
       </c>
       <c r="E9">
-        <v>82.38314158432122</v>
+        <v>45.76969450842201</v>
       </c>
       <c r="F9">
-        <v>43.15630617027016</v>
+        <v>20.86007096918814</v>
       </c>
       <c r="G9">
-        <v>69.97976968693699</v>
+        <v>26.45342108163448</v>
       </c>
       <c r="H9">
-        <v>17.15958836390084</v>
+        <v>11.40612644023092</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>112.6202582439078</v>
+        <v>64.83201972146196</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.102221387748784</v>
+        <v>5.602939013525972</v>
       </c>
       <c r="D10">
-        <v>7.630553219053536</v>
+        <v>3.310371983115453</v>
       </c>
       <c r="E10">
-        <v>82.38314158432122</v>
+        <v>49.87786705760199</v>
       </c>
       <c r="F10">
-        <v>43.15630617027016</v>
+        <v>21.26918004761591</v>
       </c>
       <c r="G10">
-        <v>69.97976968693699</v>
+        <v>27.96451690518017</v>
       </c>
       <c r="H10">
-        <v>17.15958836390084</v>
+        <v>11.18532037229778</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>112.6202582439078</v>
+        <v>70.2492148944378</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.102221387748784</v>
+        <v>5.739132207954444</v>
       </c>
       <c r="D11">
-        <v>7.630553219053536</v>
+        <v>3.431539541104398</v>
       </c>
       <c r="E11">
-        <v>82.38314158432122</v>
+        <v>51.64827665769101</v>
       </c>
       <c r="F11">
-        <v>43.15630617027016</v>
+        <v>21.50944500877759</v>
       </c>
       <c r="G11">
-        <v>69.97976968693699</v>
+        <v>28.72917904519621</v>
       </c>
       <c r="H11">
-        <v>17.15958836390084</v>
+        <v>11.10530132852388</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>112.6202582439078</v>
+        <v>72.58943003491193</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.102221387748784</v>
+        <v>5.79024120338491</v>
       </c>
       <c r="D12">
-        <v>7.630553219053536</v>
+        <v>3.477086280605161</v>
       </c>
       <c r="E12">
-        <v>82.38314158432122</v>
+        <v>52.30475915911518</v>
       </c>
       <c r="F12">
-        <v>43.15630617027016</v>
+        <v>21.60836661078242</v>
       </c>
       <c r="G12">
-        <v>69.97976968693699</v>
+        <v>29.02934808015367</v>
       </c>
       <c r="H12">
-        <v>17.15958836390084</v>
+        <v>11.07815567630058</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>112.6202582439078</v>
+        <v>73.4579325273275</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.102221387748784</v>
+        <v>5.77925522595607</v>
       </c>
       <c r="D13">
-        <v>7.630553219053536</v>
+        <v>3.467291549873048</v>
       </c>
       <c r="E13">
-        <v>82.38314158432122</v>
+        <v>52.16399002429173</v>
       </c>
       <c r="F13">
-        <v>43.15630617027016</v>
+        <v>21.58670733174029</v>
       </c>
       <c r="G13">
-        <v>69.97976968693699</v>
+        <v>28.96423811760813</v>
       </c>
       <c r="H13">
-        <v>17.15958836390084</v>
+        <v>11.08385806948573</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>112.6202582439078</v>
+        <v>73.27166875199566</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.102221387748784</v>
+        <v>5.74334650223881</v>
       </c>
       <c r="D14">
-        <v>7.630553219053536</v>
+        <v>3.435293303567023</v>
       </c>
       <c r="E14">
-        <v>82.38314158432122</v>
+        <v>51.70256383002291</v>
       </c>
       <c r="F14">
-        <v>43.15630617027016</v>
+        <v>21.51742362863297</v>
       </c>
       <c r="G14">
-        <v>69.97976968693699</v>
+        <v>28.75366461633508</v>
       </c>
       <c r="H14">
-        <v>17.15958836390084</v>
+        <v>11.10300351563863</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>112.6202582439078</v>
+        <v>72.66123570762353</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.102221387748784</v>
+        <v>5.721289749658454</v>
       </c>
       <c r="D15">
-        <v>7.630553219053536</v>
+        <v>3.415650342826378</v>
       </c>
       <c r="E15">
-        <v>82.38314158432122</v>
+        <v>51.41811907229584</v>
       </c>
       <c r="F15">
-        <v>43.15630617027016</v>
+        <v>21.47602249071823</v>
       </c>
       <c r="G15">
-        <v>69.97976968693699</v>
+        <v>28.62604781661805</v>
       </c>
       <c r="H15">
-        <v>17.15958836390084</v>
+        <v>11.11514824066037</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>112.6202582439078</v>
+        <v>72.28502976236319</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.102221387748784</v>
+        <v>5.593975625664173</v>
       </c>
       <c r="D16">
-        <v>7.630553219053536</v>
+        <v>3.302404910598212</v>
       </c>
       <c r="E16">
-        <v>82.38314158432122</v>
+        <v>49.76020478707021</v>
       </c>
       <c r="F16">
-        <v>43.15630617027016</v>
+        <v>21.25458240661795</v>
       </c>
       <c r="G16">
-        <v>69.97976968693699</v>
+        <v>27.91605771326773</v>
       </c>
       <c r="H16">
-        <v>17.15958836390084</v>
+        <v>11.19097935317579</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>112.6202582439078</v>
+        <v>70.09379212449794</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.102221387748784</v>
+        <v>5.515088271466781</v>
       </c>
       <c r="D17">
-        <v>7.630553219053536</v>
+        <v>3.232306153207265</v>
       </c>
       <c r="E17">
-        <v>82.38314158432122</v>
+        <v>48.71807467179959</v>
       </c>
       <c r="F17">
-        <v>43.15630617027016</v>
+        <v>21.13273631668204</v>
       </c>
       <c r="G17">
-        <v>69.97976968693699</v>
+        <v>27.49995508689101</v>
       </c>
       <c r="H17">
-        <v>17.15958836390084</v>
+        <v>11.2428841432117</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>112.6202582439078</v>
+        <v>68.71785881290143</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.102221387748784</v>
+        <v>5.469439908510362</v>
       </c>
       <c r="D18">
-        <v>7.630553219053536</v>
+        <v>3.191749292772599</v>
       </c>
       <c r="E18">
-        <v>82.38314158432122</v>
+        <v>48.10939186805792</v>
       </c>
       <c r="F18">
-        <v>43.15630617027016</v>
+        <v>21.06774679043274</v>
       </c>
       <c r="G18">
-        <v>69.97976968693699</v>
+        <v>27.2679314566601</v>
       </c>
       <c r="H18">
-        <v>17.15958836390084</v>
+        <v>11.27464748165998</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>112.6202582439078</v>
+        <v>67.91476662660979</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.102221387748784</v>
+        <v>5.453938395992205</v>
       </c>
       <c r="D19">
-        <v>7.630553219053536</v>
+        <v>3.177975859730464</v>
       </c>
       <c r="E19">
-        <v>82.38314158432122</v>
+        <v>47.90170239907148</v>
       </c>
       <c r="F19">
-        <v>43.15630617027016</v>
+        <v>21.04661149648404</v>
       </c>
       <c r="G19">
-        <v>69.97976968693699</v>
+        <v>27.1906414706729</v>
       </c>
       <c r="H19">
-        <v>17.15958836390084</v>
+        <v>11.28572335226386</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>112.6202582439078</v>
+        <v>67.64084099078268</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.102221387748784</v>
+        <v>5.523514691258606</v>
       </c>
       <c r="D20">
-        <v>7.630553219053536</v>
+        <v>3.239792737069351</v>
       </c>
       <c r="E20">
-        <v>82.38314158432122</v>
+        <v>48.82996978100088</v>
       </c>
       <c r="F20">
-        <v>43.15630617027016</v>
+        <v>21.14517861547516</v>
       </c>
       <c r="G20">
-        <v>69.97976968693699</v>
+        <v>27.54349703904396</v>
       </c>
       <c r="H20">
-        <v>17.15958836390084</v>
+        <v>11.23715964808365</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>112.6202582439078</v>
+        <v>68.86553825618023</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.102221387748784</v>
+        <v>5.753906673425405</v>
       </c>
       <c r="D21">
-        <v>7.630553219053536</v>
+        <v>3.444700902800935</v>
       </c>
       <c r="E21">
-        <v>82.38314158432122</v>
+        <v>51.83847224999617</v>
       </c>
       <c r="F21">
-        <v>43.15630617027016</v>
+        <v>21.53755762056668</v>
       </c>
       <c r="G21">
-        <v>69.97976968693699</v>
+        <v>28.81523155187693</v>
       </c>
       <c r="H21">
-        <v>17.15958836390084</v>
+        <v>11.09729260996774</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>112.6202582439078</v>
+        <v>72.84101328552929</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.102221387748784</v>
+        <v>5.901758879272341</v>
       </c>
       <c r="D22">
-        <v>7.630553219053536</v>
+        <v>3.576669624231359</v>
       </c>
       <c r="E22">
-        <v>82.38314158432122</v>
+        <v>53.72359598818063</v>
       </c>
       <c r="F22">
-        <v>43.15630617027016</v>
+        <v>21.84029416659346</v>
       </c>
       <c r="G22">
-        <v>69.97976968693699</v>
+        <v>29.70794870866591</v>
       </c>
       <c r="H22">
-        <v>17.15958836390084</v>
+        <v>11.02438190045184</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>112.6202582439078</v>
+        <v>75.33622031797186</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.102221387748784</v>
+        <v>5.823108791016317</v>
       </c>
       <c r="D23">
-        <v>7.630553219053536</v>
+        <v>3.506405465703755</v>
       </c>
       <c r="E23">
-        <v>82.38314158432122</v>
+        <v>52.72481697347003</v>
       </c>
       <c r="F23">
-        <v>43.15630617027016</v>
+        <v>21.67444968094836</v>
       </c>
       <c r="G23">
-        <v>69.97976968693699</v>
+        <v>29.2260349566339</v>
       </c>
       <c r="H23">
-        <v>17.15958836390084</v>
+        <v>11.06152901608675</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>112.6202582439078</v>
+        <v>74.0138459480233</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.102221387748784</v>
+        <v>5.51970602239843</v>
       </c>
       <c r="D24">
-        <v>7.630553219053536</v>
+        <v>3.236408852178645</v>
       </c>
       <c r="E24">
-        <v>82.38314158432122</v>
+        <v>48.77941175952597</v>
       </c>
       <c r="F24">
-        <v>43.15630617027016</v>
+        <v>21.13953769922808</v>
       </c>
       <c r="G24">
-        <v>69.97976968693699</v>
+        <v>27.52378926061497</v>
       </c>
       <c r="H24">
-        <v>17.15958836390084</v>
+        <v>11.23974172038679</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>112.6202582439078</v>
+        <v>68.79880992397341</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.102221387748784</v>
+        <v>5.182168030038254</v>
       </c>
       <c r="D25">
-        <v>7.630553219053536</v>
+        <v>2.935991824725725</v>
       </c>
       <c r="E25">
-        <v>82.38314158432122</v>
+        <v>44.16812726076083</v>
       </c>
       <c r="F25">
-        <v>43.15630617027016</v>
+        <v>20.756035967963</v>
       </c>
       <c r="G25">
-        <v>69.97976968693699</v>
+        <v>25.96826590553401</v>
       </c>
       <c r="H25">
-        <v>17.15958836390084</v>
+        <v>11.50414683576907</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>112.6202582439078</v>
+        <v>62.72616813052861</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_124/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_124/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.92663022216654</v>
+        <v>8.437296893046446</v>
       </c>
       <c r="D2">
-        <v>2.706030255740866</v>
+        <v>8.438623616310354</v>
       </c>
       <c r="E2">
-        <v>40.45870857033537</v>
+        <v>87.71339960893847</v>
       </c>
       <c r="F2">
-        <v>20.63069856659229</v>
+        <v>47.11271148854902</v>
       </c>
       <c r="G2">
-        <v>25.07669775851724</v>
+        <v>76.7590317037194</v>
       </c>
       <c r="H2">
-        <v>11.75330198768288</v>
+        <v>18.84671791310662</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>57.86521735402618</v>
+        <v>119.2537783298519</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.75020579027044</v>
+        <v>7.554639156285218</v>
       </c>
       <c r="D3">
-        <v>2.775981400822221</v>
+        <v>6.566386869467839</v>
       </c>
       <c r="E3">
-        <v>37.7447454554132</v>
+        <v>75.0319369621979</v>
       </c>
       <c r="F3">
-        <v>20.63698421196751</v>
+        <v>37.70633714861494</v>
       </c>
       <c r="G3">
-        <v>24.63225408136648</v>
+        <v>60.70466269990952</v>
       </c>
       <c r="H3">
-        <v>11.95258782237333</v>
+        <v>14.85518936460779</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>54.32657143557415</v>
+        <v>103.1774455770503</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.640721872203416</v>
+        <v>7.079274402107008</v>
       </c>
       <c r="D4">
-        <v>2.882741088580405</v>
+        <v>5.795212540543691</v>
       </c>
       <c r="E4">
-        <v>35.97835745701322</v>
+        <v>69.3672993735744</v>
       </c>
       <c r="F4">
-        <v>20.68308875040475</v>
+        <v>33.5961327288287</v>
       </c>
       <c r="G4">
-        <v>24.43684844615833</v>
+        <v>53.75222717373857</v>
       </c>
       <c r="H4">
-        <v>12.08886615363643</v>
+        <v>13.13214306347346</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>52.03338129302649</v>
+        <v>95.72690334294846</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.595888422962744</v>
+        <v>6.88983887493453</v>
       </c>
       <c r="D5">
-        <v>2.927040347804819</v>
+        <v>5.515926520192055</v>
       </c>
       <c r="E5">
-        <v>35.2332020867936</v>
+        <v>67.22640747674362</v>
       </c>
       <c r="F5">
-        <v>20.71204526999227</v>
+        <v>32.07591933800424</v>
       </c>
       <c r="G5">
-        <v>24.37629344396692</v>
+        <v>51.18933361421718</v>
       </c>
       <c r="H5">
-        <v>12.14774615468647</v>
+        <v>12.4982661523935</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>51.06868264551071</v>
+        <v>92.88023435793943</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.588432967093631</v>
+        <v>6.858506787324385</v>
       </c>
       <c r="D6">
-        <v>2.93444452074627</v>
+        <v>5.471050985439605</v>
       </c>
       <c r="E6">
-        <v>35.10793370229888</v>
+        <v>66.87740087191929</v>
       </c>
       <c r="F6">
-        <v>20.71745366985141</v>
+        <v>31.83013561509927</v>
       </c>
       <c r="G6">
-        <v>24.36737443592509</v>
+        <v>50.77539234753137</v>
       </c>
       <c r="H6">
-        <v>12.15772086564211</v>
+        <v>12.39596585555565</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>50.90667464537157</v>
+        <v>92.41477091371438</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.640118013298389</v>
+        <v>7.076708960294845</v>
       </c>
       <c r="D7">
-        <v>2.883335292988268</v>
+        <v>5.791334881838961</v>
       </c>
       <c r="E7">
-        <v>35.96841087565716</v>
+        <v>69.33792946034652</v>
       </c>
       <c r="F7">
-        <v>20.68343872255418</v>
+        <v>33.57513846838892</v>
       </c>
       <c r="G7">
-        <v>24.43595524023551</v>
+        <v>53.71680270470522</v>
       </c>
       <c r="H7">
-        <v>12.08964688093299</v>
+        <v>13.12337616235805</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>52.0204931698381</v>
+        <v>95.68795524978663</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.866081757249129</v>
+        <v>8.102221387748809</v>
       </c>
       <c r="D8">
-        <v>2.664736848931564</v>
+        <v>7.630553219053869</v>
       </c>
       <c r="E8">
-        <v>39.54357401156243</v>
+        <v>82.38314158432148</v>
       </c>
       <c r="F8">
-        <v>20.62383684784165</v>
+        <v>43.15630617027115</v>
       </c>
       <c r="G8">
-        <v>24.90718999635376</v>
+        <v>69.97976968693884</v>
       </c>
       <c r="H8">
-        <v>11.81903217340908</v>
+        <v>17.15958836390129</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>56.67011963173081</v>
+        <v>112.6202582439082</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.297091858814765</v>
+        <v>8.102221387748809</v>
       </c>
       <c r="D9">
-        <v>3.038493853217551</v>
+        <v>7.630553219053869</v>
       </c>
       <c r="E9">
-        <v>45.76969450842201</v>
+        <v>82.38314158432148</v>
       </c>
       <c r="F9">
-        <v>20.86007096918814</v>
+        <v>43.15630617027115</v>
       </c>
       <c r="G9">
-        <v>26.45342108163448</v>
+        <v>69.97976968693884</v>
       </c>
       <c r="H9">
-        <v>11.40612644023092</v>
+        <v>17.15958836390129</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>64.83201972146196</v>
+        <v>112.6202582439082</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.602939013525972</v>
+        <v>8.102221387748809</v>
       </c>
       <c r="D10">
-        <v>3.310371983115453</v>
+        <v>7.630553219053869</v>
       </c>
       <c r="E10">
-        <v>49.87786705760199</v>
+        <v>82.38314158432148</v>
       </c>
       <c r="F10">
-        <v>21.26918004761591</v>
+        <v>43.15630617027115</v>
       </c>
       <c r="G10">
-        <v>27.96451690518017</v>
+        <v>69.97976968693884</v>
       </c>
       <c r="H10">
-        <v>11.18532037229778</v>
+        <v>17.15958836390129</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>70.2492148944378</v>
+        <v>112.6202582439082</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.739132207954444</v>
+        <v>8.102221387748809</v>
       </c>
       <c r="D11">
-        <v>3.431539541104398</v>
+        <v>7.630553219053869</v>
       </c>
       <c r="E11">
-        <v>51.64827665769101</v>
+        <v>82.38314158432148</v>
       </c>
       <c r="F11">
-        <v>21.50944500877759</v>
+        <v>43.15630617027115</v>
       </c>
       <c r="G11">
-        <v>28.72917904519621</v>
+        <v>69.97976968693884</v>
       </c>
       <c r="H11">
-        <v>11.10530132852388</v>
+        <v>17.15958836390129</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>72.58943003491193</v>
+        <v>112.6202582439082</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.79024120338491</v>
+        <v>8.102221387748809</v>
       </c>
       <c r="D12">
-        <v>3.477086280605161</v>
+        <v>7.630553219053869</v>
       </c>
       <c r="E12">
-        <v>52.30475915911518</v>
+        <v>82.38314158432148</v>
       </c>
       <c r="F12">
-        <v>21.60836661078242</v>
+        <v>43.15630617027115</v>
       </c>
       <c r="G12">
-        <v>29.02934808015367</v>
+        <v>69.97976968693884</v>
       </c>
       <c r="H12">
-        <v>11.07815567630058</v>
+        <v>17.15958836390129</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>73.4579325273275</v>
+        <v>112.6202582439082</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.77925522595607</v>
+        <v>8.102221387748809</v>
       </c>
       <c r="D13">
-        <v>3.467291549873048</v>
+        <v>7.630553219053869</v>
       </c>
       <c r="E13">
-        <v>52.16399002429173</v>
+        <v>82.38314158432148</v>
       </c>
       <c r="F13">
-        <v>21.58670733174029</v>
+        <v>43.15630617027115</v>
       </c>
       <c r="G13">
-        <v>28.96423811760813</v>
+        <v>69.97976968693884</v>
       </c>
       <c r="H13">
-        <v>11.08385806948573</v>
+        <v>17.15958836390129</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>73.27166875199566</v>
+        <v>112.6202582439082</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.74334650223881</v>
+        <v>8.102221387748809</v>
       </c>
       <c r="D14">
-        <v>3.435293303567023</v>
+        <v>7.630553219053869</v>
       </c>
       <c r="E14">
-        <v>51.70256383002291</v>
+        <v>82.38314158432148</v>
       </c>
       <c r="F14">
-        <v>21.51742362863297</v>
+        <v>43.15630617027115</v>
       </c>
       <c r="G14">
-        <v>28.75366461633508</v>
+        <v>69.97976968693884</v>
       </c>
       <c r="H14">
-        <v>11.10300351563863</v>
+        <v>17.15958836390129</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>72.66123570762353</v>
+        <v>112.6202582439082</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.721289749658454</v>
+        <v>8.102221387748809</v>
       </c>
       <c r="D15">
-        <v>3.415650342826378</v>
+        <v>7.630553219053869</v>
       </c>
       <c r="E15">
-        <v>51.41811907229584</v>
+        <v>82.38314158432148</v>
       </c>
       <c r="F15">
-        <v>21.47602249071823</v>
+        <v>43.15630617027115</v>
       </c>
       <c r="G15">
-        <v>28.62604781661805</v>
+        <v>69.97976968693884</v>
       </c>
       <c r="H15">
-        <v>11.11514824066037</v>
+        <v>17.15958836390129</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>72.28502976236319</v>
+        <v>112.6202582439082</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.593975625664173</v>
+        <v>8.102221387748809</v>
       </c>
       <c r="D16">
-        <v>3.302404910598212</v>
+        <v>7.630553219053869</v>
       </c>
       <c r="E16">
-        <v>49.76020478707021</v>
+        <v>82.38314158432148</v>
       </c>
       <c r="F16">
-        <v>21.25458240661795</v>
+        <v>43.15630617027115</v>
       </c>
       <c r="G16">
-        <v>27.91605771326773</v>
+        <v>69.97976968693884</v>
       </c>
       <c r="H16">
-        <v>11.19097935317579</v>
+        <v>17.15958836390129</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>70.09379212449794</v>
+        <v>112.6202582439082</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.515088271466781</v>
+        <v>8.102221387748809</v>
       </c>
       <c r="D17">
-        <v>3.232306153207265</v>
+        <v>7.630553219053869</v>
       </c>
       <c r="E17">
-        <v>48.71807467179959</v>
+        <v>82.38314158432148</v>
       </c>
       <c r="F17">
-        <v>21.13273631668204</v>
+        <v>43.15630617027115</v>
       </c>
       <c r="G17">
-        <v>27.49995508689101</v>
+        <v>69.97976968693884</v>
       </c>
       <c r="H17">
-        <v>11.2428841432117</v>
+        <v>17.15958836390129</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>68.71785881290143</v>
+        <v>112.6202582439082</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.469439908510362</v>
+        <v>8.102221387748809</v>
       </c>
       <c r="D18">
-        <v>3.191749292772599</v>
+        <v>7.630553219053869</v>
       </c>
       <c r="E18">
-        <v>48.10939186805792</v>
+        <v>82.38314158432148</v>
       </c>
       <c r="F18">
-        <v>21.06774679043274</v>
+        <v>43.15630617027115</v>
       </c>
       <c r="G18">
-        <v>27.2679314566601</v>
+        <v>69.97976968693884</v>
       </c>
       <c r="H18">
-        <v>11.27464748165998</v>
+        <v>17.15958836390129</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>67.91476662660979</v>
+        <v>112.6202582439082</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.453938395992205</v>
+        <v>8.102221387748809</v>
       </c>
       <c r="D19">
-        <v>3.177975859730464</v>
+        <v>7.630553219053869</v>
       </c>
       <c r="E19">
-        <v>47.90170239907148</v>
+        <v>82.38314158432148</v>
       </c>
       <c r="F19">
-        <v>21.04661149648404</v>
+        <v>43.15630617027115</v>
       </c>
       <c r="G19">
-        <v>27.1906414706729</v>
+        <v>69.97976968693884</v>
       </c>
       <c r="H19">
-        <v>11.28572335226386</v>
+        <v>17.15958836390129</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>67.64084099078268</v>
+        <v>112.6202582439082</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.523514691258606</v>
+        <v>8.102221387748809</v>
       </c>
       <c r="D20">
-        <v>3.239792737069351</v>
+        <v>7.630553219053869</v>
       </c>
       <c r="E20">
-        <v>48.82996978100088</v>
+        <v>82.38314158432148</v>
       </c>
       <c r="F20">
-        <v>21.14517861547516</v>
+        <v>43.15630617027115</v>
       </c>
       <c r="G20">
-        <v>27.54349703904396</v>
+        <v>69.97976968693884</v>
       </c>
       <c r="H20">
-        <v>11.23715964808365</v>
+        <v>17.15958836390129</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>68.86553825618023</v>
+        <v>112.6202582439082</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.753906673425405</v>
+        <v>8.102221387748809</v>
       </c>
       <c r="D21">
-        <v>3.444700902800935</v>
+        <v>7.630553219053869</v>
       </c>
       <c r="E21">
-        <v>51.83847224999617</v>
+        <v>82.38314158432148</v>
       </c>
       <c r="F21">
-        <v>21.53755762056668</v>
+        <v>43.15630617027115</v>
       </c>
       <c r="G21">
-        <v>28.81523155187693</v>
+        <v>69.97976968693884</v>
       </c>
       <c r="H21">
-        <v>11.09729260996774</v>
+        <v>17.15958836390129</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>72.84101328552929</v>
+        <v>112.6202582439082</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.901758879272341</v>
+        <v>8.102221387748809</v>
       </c>
       <c r="D22">
-        <v>3.576669624231359</v>
+        <v>7.630553219053869</v>
       </c>
       <c r="E22">
-        <v>53.72359598818063</v>
+        <v>82.38314158432148</v>
       </c>
       <c r="F22">
-        <v>21.84029416659346</v>
+        <v>43.15630617027115</v>
       </c>
       <c r="G22">
-        <v>29.70794870866591</v>
+        <v>69.97976968693884</v>
       </c>
       <c r="H22">
-        <v>11.02438190045184</v>
+        <v>17.15958836390129</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>75.33622031797186</v>
+        <v>112.6202582439082</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.823108791016317</v>
+        <v>8.102221387748809</v>
       </c>
       <c r="D23">
-        <v>3.506405465703755</v>
+        <v>7.630553219053869</v>
       </c>
       <c r="E23">
-        <v>52.72481697347003</v>
+        <v>82.38314158432148</v>
       </c>
       <c r="F23">
-        <v>21.67444968094836</v>
+        <v>43.15630617027115</v>
       </c>
       <c r="G23">
-        <v>29.2260349566339</v>
+        <v>69.97976968693884</v>
       </c>
       <c r="H23">
-        <v>11.06152901608675</v>
+        <v>17.15958836390129</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>74.0138459480233</v>
+        <v>112.6202582439082</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.51970602239843</v>
+        <v>8.102221387748809</v>
       </c>
       <c r="D24">
-        <v>3.236408852178645</v>
+        <v>7.630553219053869</v>
       </c>
       <c r="E24">
-        <v>48.77941175952597</v>
+        <v>82.38314158432148</v>
       </c>
       <c r="F24">
-        <v>21.13953769922808</v>
+        <v>43.15630617027115</v>
       </c>
       <c r="G24">
-        <v>27.52378926061497</v>
+        <v>69.97976968693884</v>
       </c>
       <c r="H24">
-        <v>11.23974172038679</v>
+        <v>17.15958836390129</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>68.79880992397341</v>
+        <v>112.6202582439082</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.182168030038254</v>
+        <v>8.102221387748809</v>
       </c>
       <c r="D25">
-        <v>2.935991824725725</v>
+        <v>7.630553219053869</v>
       </c>
       <c r="E25">
-        <v>44.16812726076083</v>
+        <v>82.38314158432148</v>
       </c>
       <c r="F25">
-        <v>20.756035967963</v>
+        <v>43.15630617027115</v>
       </c>
       <c r="G25">
-        <v>25.96826590553401</v>
+        <v>69.97976968693884</v>
       </c>
       <c r="H25">
-        <v>11.50414683576907</v>
+        <v>17.15958836390129</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>62.72616813052861</v>
+        <v>112.6202582439082</v>
       </c>
       <c r="N25">
         <v>0</v>
